--- a/KO.xlsx
+++ b/KO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF46876-7097-46C9-BEB4-09DFE02BAB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B0B676-15D3-4E98-9231-AA4C029B4CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25065" yWindow="1875" windowWidth="25545" windowHeight="17280" activeTab="1" xr2:uid="{653FF38A-A2B1-4151-90B2-FFB9E7A87E0D}"/>
+    <workbookView xWindow="37000" yWindow="4170" windowWidth="32770" windowHeight="15380" xr2:uid="{653FF38A-A2B1-4151-90B2-FFB9E7A87E0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="91">
   <si>
     <t>Price</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>Share</t>
+  </si>
+  <si>
+    <t>Q125</t>
   </si>
 </sst>
 </file>
@@ -314,7 +317,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -397,7 +400,7 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -858,69 +861,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD94757B-7F8D-4466-88CB-45013F9709DA}">
   <dimension ref="K2:M7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>71</v>
+        <v>68.94</v>
       </c>
     </row>
-    <row r="3" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="15">
-        <v>4301</v>
+        <v>4304.2667380000003</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="4" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="15">
         <f>+L2*L3</f>
-        <v>305371</v>
+        <v>296736.14891772001</v>
       </c>
     </row>
-    <row r="5" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K5" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="15">
-        <f>10828+2020+18087+1723</f>
-        <v>32658</v>
+        <f>8417+3579+1791+18369</f>
+        <v>32156</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="6" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="15">
-        <f>42375+648</f>
-        <v>43023</v>
+        <f>5418+43530+163</f>
+        <v>49111</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="7" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="15">
         <f>+L4-L5+L6</f>
-        <v>315736</v>
+        <v>313691.14891772001</v>
       </c>
     </row>
   </sheetData>
@@ -932,22 +937,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E61E9C-EBF1-47F0-8616-A44ADEA820ED}">
   <dimension ref="A1:GE20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="BT3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BV7" sqref="BV7"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="2" customWidth="1"/>
     <col min="3" max="68" width="9" style="4" customWidth="1"/>
-    <col min="69" max="16384" width="9.140625" style="13"/>
+    <col min="69" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:187" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:187" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>79</v>
       </c>
@@ -1153,7 +1158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:187" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:187" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1439,7 +1444,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:187" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:187" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
@@ -1714,7 +1719,7 @@
         <v>55139.46212934763</v>
       </c>
     </row>
-    <row r="4" spans="1:187" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:187" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
@@ -1957,7 +1962,7 @@
         <v>18324</v>
       </c>
     </row>
-    <row r="5" spans="1:187" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:187" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
@@ -2172,35 +2177,35 @@
         <v>22491</v>
       </c>
       <c r="BW5" s="7">
-        <f>+BW3-BW4</f>
+        <f t="shared" ref="BW5:CC5" si="3">+BW3-BW4</f>
         <v>21233</v>
       </c>
       <c r="BX5" s="7">
-        <f>+BX3-BX4</f>
+        <f t="shared" si="3"/>
         <v>22647</v>
       </c>
       <c r="BY5" s="7">
-        <f>+BY3-BY4</f>
+        <f t="shared" si="3"/>
         <v>19581</v>
       </c>
       <c r="BZ5" s="7">
-        <f>+BZ3-BZ4</f>
+        <f t="shared" si="3"/>
         <v>23298</v>
       </c>
       <c r="CA5" s="7">
-        <f>+CA3-CA4</f>
+        <f t="shared" si="3"/>
         <v>25004</v>
       </c>
       <c r="CB5" s="7">
-        <f>+CB3-CB4</f>
+        <f t="shared" si="3"/>
         <v>27234</v>
       </c>
       <c r="CC5" s="7">
-        <f>+CC3-CC4</f>
+        <f t="shared" si="3"/>
         <v>28737</v>
       </c>
     </row>
-    <row r="6" spans="1:187" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:187" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
@@ -2443,316 +2448,316 @@
         <v>18745</v>
       </c>
     </row>
-    <row r="7" spans="1:187" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:187" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="7">
-        <f t="shared" ref="C7:BN7" si="3">+C5-C6</f>
+        <f t="shared" ref="C7:BN7" si="4">+C5-C6</f>
         <v>2679</v>
       </c>
       <c r="D7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2234</v>
       </c>
       <c r="E7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1955</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2510</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2198</v>
       </c>
       <c r="H7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1881</v>
       </c>
       <c r="I7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2279</v>
       </c>
       <c r="J7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2841</v>
       </c>
       <c r="K7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2444</v>
       </c>
       <c r="L7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1668</v>
       </c>
       <c r="M7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2493</v>
       </c>
       <c r="N7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3331</v>
       </c>
       <c r="O7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2850</v>
       </c>
       <c r="P7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2231</v>
       </c>
       <c r="Q7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2608</v>
       </c>
       <c r="R7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3364</v>
       </c>
       <c r="S7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2857</v>
       </c>
       <c r="T7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2397</v>
       </c>
       <c r="U7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2529</v>
       </c>
       <c r="V7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3375</v>
       </c>
       <c r="W7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2813</v>
       </c>
       <c r="X7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2406</v>
       </c>
       <c r="Y7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2504</v>
       </c>
       <c r="Z7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3371</v>
       </c>
       <c r="AA7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2839</v>
       </c>
       <c r="AB7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2177</v>
       </c>
       <c r="AC7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2529</v>
       </c>
       <c r="AD7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3204</v>
       </c>
       <c r="AE7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2643</v>
       </c>
       <c r="AF7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2009</v>
       </c>
       <c r="AG7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2452</v>
       </c>
       <c r="AH7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3156</v>
       </c>
       <c r="AI7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2493</v>
       </c>
       <c r="AJ7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>556</v>
       </c>
       <c r="AK7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2253</v>
       </c>
       <c r="AL7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2863</v>
       </c>
       <c r="AM7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2245</v>
       </c>
       <c r="AN7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>394</v>
       </c>
       <c r="AO7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1811</v>
       </c>
       <c r="AP7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2766</v>
       </c>
       <c r="AQ7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2614</v>
       </c>
       <c r="AR7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1961</v>
       </c>
       <c r="AS7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2435</v>
       </c>
       <c r="AT7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2988</v>
       </c>
       <c r="AU7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2499</v>
       </c>
       <c r="AV7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2164</v>
       </c>
       <c r="AW7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2380</v>
       </c>
       <c r="AX7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1981</v>
       </c>
       <c r="AY7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2298</v>
       </c>
       <c r="AZ7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2338</v>
       </c>
       <c r="BA7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2722</v>
       </c>
       <c r="BB7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3016</v>
       </c>
       <c r="BC7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2898</v>
       </c>
       <c r="BD7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1672</v>
       </c>
       <c r="BE7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3405</v>
       </c>
       <c r="BF7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2341</v>
       </c>
       <c r="BG7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3088</v>
       </c>
       <c r="BH7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2075</v>
       </c>
       <c r="BI7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3367</v>
       </c>
       <c r="BJ7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2401</v>
       </c>
       <c r="BK7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3270</v>
       </c>
       <c r="BL7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2273</v>
       </c>
       <c r="BM7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2141</v>
       </c>
       <c r="BN7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2632</v>
       </c>
       <c r="BO7" s="7">
-        <f t="shared" ref="BO7:BP7" si="4">+BO5-BO6</f>
+        <f t="shared" ref="BO7:BP7" si="5">+BO5-BO6</f>
         <v>2510</v>
       </c>
       <c r="BP7" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2709</v>
       </c>
       <c r="BT7" s="7">
-        <f t="shared" ref="BT7:BW7" si="5">+BT5-BT6</f>
+        <f t="shared" ref="BT7:BW7" si="6">+BT5-BT6</f>
         <v>10385</v>
       </c>
       <c r="BU7" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8657</v>
       </c>
       <c r="BV7" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7755</v>
       </c>
       <c r="BW7" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9152</v>
       </c>
       <c r="BX7" s="7">
-        <f>+BX5-BX6</f>
+        <f t="shared" ref="BX7:CC7" si="7">+BX5-BX6</f>
         <v>10086</v>
       </c>
       <c r="BY7" s="7">
-        <f>+BY5-BY6</f>
+        <f t="shared" si="7"/>
         <v>8997</v>
       </c>
       <c r="BZ7" s="7">
-        <f>+BZ5-BZ6</f>
+        <f t="shared" si="7"/>
         <v>10308</v>
       </c>
       <c r="CA7" s="7">
-        <f>+CA5-CA6</f>
+        <f t="shared" si="7"/>
         <v>10909</v>
       </c>
       <c r="CB7" s="7">
-        <f>+CB5-CB6</f>
+        <f t="shared" si="7"/>
         <v>11311</v>
       </c>
       <c r="CC7" s="7">
-        <f>+CC5-CC6</f>
+        <f t="shared" si="7"/>
         <v>9992</v>
       </c>
     </row>
-    <row r="8" spans="1:187" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:187" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
@@ -2995,268 +3000,268 @@
         <v>3094</v>
       </c>
     </row>
-    <row r="9" spans="1:187" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:187" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="10">
-        <f t="shared" ref="C9:BN9" si="6">+C7+C8</f>
+        <f t="shared" ref="C9:BN9" si="8">+C7+C8</f>
         <v>1917</v>
       </c>
       <c r="D9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2517</v>
       </c>
       <c r="E9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1907</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2800</v>
       </c>
       <c r="G9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2491</v>
       </c>
       <c r="H9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2061</v>
       </c>
       <c r="I9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2275</v>
       </c>
       <c r="J9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3201</v>
       </c>
       <c r="K9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2800</v>
       </c>
       <c r="L9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6750</v>
       </c>
       <c r="M9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2725</v>
       </c>
       <c r="N9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3951</v>
       </c>
       <c r="O9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3023</v>
       </c>
       <c r="P9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2491</v>
       </c>
       <c r="Q9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2824</v>
       </c>
       <c r="R9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3693</v>
       </c>
       <c r="S9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3148</v>
       </c>
       <c r="T9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2591</v>
       </c>
       <c r="U9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2465</v>
       </c>
       <c r="V9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3657</v>
       </c>
       <c r="W9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3721</v>
       </c>
       <c r="X9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2529</v>
       </c>
       <c r="Y9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2333</v>
       </c>
       <c r="Z9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3585</v>
       </c>
       <c r="AA9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2788</v>
       </c>
       <c r="AB9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1802</v>
       </c>
       <c r="AC9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2214</v>
       </c>
       <c r="AD9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5030</v>
       </c>
       <c r="AE9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1989</v>
       </c>
       <c r="AF9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2029</v>
       </c>
       <c r="AG9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2205</v>
       </c>
       <c r="AH9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4596</v>
       </c>
       <c r="AI9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1650</v>
       </c>
       <c r="AJ9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-315</v>
       </c>
       <c r="AK9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1797</v>
       </c>
       <c r="AL9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3450</v>
       </c>
       <c r="AM9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1674</v>
       </c>
       <c r="AN9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-31</v>
       </c>
       <c r="AO9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1833</v>
       </c>
       <c r="AP9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2942</v>
       </c>
       <c r="AQ9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2373</v>
       </c>
       <c r="AR9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1077</v>
       </c>
       <c r="AS9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2225</v>
       </c>
       <c r="AT9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3049</v>
       </c>
       <c r="AU9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3092</v>
       </c>
       <c r="AV9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2420</v>
       </c>
       <c r="AW9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3010</v>
       </c>
       <c r="AX9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2197</v>
       </c>
       <c r="AY9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2181</v>
       </c>
       <c r="AZ9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2361</v>
       </c>
       <c r="BA9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2763</v>
       </c>
       <c r="BB9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3618</v>
       </c>
       <c r="BC9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3084</v>
       </c>
       <c r="BD9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2960</v>
       </c>
       <c r="BE9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3458</v>
       </c>
       <c r="BF9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2284</v>
       </c>
       <c r="BG9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3444</v>
       </c>
       <c r="BH9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2500</v>
       </c>
       <c r="BI9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4053</v>
       </c>
       <c r="BJ9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2880</v>
       </c>
       <c r="BK9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3537</v>
       </c>
       <c r="BL9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2482</v>
       </c>
       <c r="BM9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3872</v>
       </c>
       <c r="BN9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3028</v>
       </c>
       <c r="BO9" s="10">
-        <f t="shared" ref="BO9" si="7">+BO7+BO8</f>
+        <f t="shared" ref="BO9" si="9">+BO7+BO8</f>
         <v>3380</v>
       </c>
       <c r="BP9" s="10">
@@ -3264,19 +3269,19 @@
         <v>2806</v>
       </c>
       <c r="BT9" s="7">
-        <f t="shared" ref="BT9:BW9" si="8">+BT7+BT8</f>
+        <f t="shared" ref="BT9:BW9" si="10">+BT7+BT8</f>
         <v>11262</v>
       </c>
       <c r="BU9" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8136</v>
       </c>
       <c r="BV9" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6890</v>
       </c>
       <c r="BW9" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8225</v>
       </c>
       <c r="BX9" s="7">
@@ -3284,27 +3289,27 @@
         <v>10786</v>
       </c>
       <c r="BY9" s="7">
-        <f t="shared" ref="BY9:CC9" si="9">+BY7+BY8</f>
+        <f t="shared" ref="BY9:CC9" si="11">+BY7+BY8</f>
         <v>9749</v>
       </c>
       <c r="BZ9" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12425</v>
       </c>
       <c r="CA9" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>11686</v>
       </c>
       <c r="CB9" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12952</v>
       </c>
       <c r="CC9" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>13086</v>
       </c>
     </row>
-    <row r="10" spans="1:187" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:187" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
@@ -3547,268 +3552,268 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="11" spans="1:187" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:187" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="10">
-        <f t="shared" ref="C11:BN11" si="10">+C9-C10</f>
+        <f t="shared" ref="C11:BN11" si="12">+C9-C10</f>
         <v>1443</v>
       </c>
       <c r="D11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1962</v>
       </c>
       <c r="E11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1451</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2121</v>
       </c>
       <c r="G11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1968</v>
       </c>
       <c r="H11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1679</v>
       </c>
       <c r="I11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1722</v>
       </c>
       <c r="J11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2460</v>
       </c>
       <c r="K11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2167</v>
       </c>
       <c r="L11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6307</v>
       </c>
       <c r="M11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2125</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2959</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2342</v>
       </c>
       <c r="P11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1952</v>
       </c>
       <c r="Q11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2166</v>
       </c>
       <c r="R11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2870</v>
       </c>
       <c r="S11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2393</v>
       </c>
       <c r="T11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2104</v>
       </c>
       <c r="U11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1890</v>
       </c>
       <c r="V11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2826</v>
       </c>
       <c r="W11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2796</v>
       </c>
       <c r="X11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2009</v>
       </c>
       <c r="Y11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1754</v>
       </c>
       <c r="Z11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2806</v>
       </c>
       <c r="AA11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2250</v>
       </c>
       <c r="AB11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1497</v>
       </c>
       <c r="AC11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1799</v>
       </c>
       <c r="AD11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3780</v>
       </c>
       <c r="AE11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1717</v>
       </c>
       <c r="AF11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1727</v>
       </c>
       <c r="AG11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1804</v>
       </c>
       <c r="AH11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3757</v>
       </c>
       <c r="AI11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1272</v>
       </c>
       <c r="AJ11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-283</v>
       </c>
       <c r="AK11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1474</v>
       </c>
       <c r="AL11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2198</v>
       </c>
       <c r="AM11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1444</v>
       </c>
       <c r="AN11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-3833</v>
       </c>
       <c r="AO11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1327</v>
       </c>
       <c r="AP11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2331</v>
       </c>
       <c r="AQ11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1818</v>
       </c>
       <c r="AR11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="AS11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1703</v>
       </c>
       <c r="AT11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2628</v>
       </c>
       <c r="AU11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2589</v>
       </c>
       <c r="AV11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2065</v>
       </c>
       <c r="AW11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2795</v>
       </c>
       <c r="AX11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1759</v>
       </c>
       <c r="AY11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1740</v>
       </c>
       <c r="AZ11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1474</v>
       </c>
       <c r="BA11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2255</v>
       </c>
       <c r="BB11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2624</v>
       </c>
       <c r="BC11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2475</v>
       </c>
       <c r="BD11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2450</v>
       </c>
       <c r="BE11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2793</v>
       </c>
       <c r="BF11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1900</v>
       </c>
       <c r="BG11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2822</v>
       </c>
       <c r="BH11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2056</v>
       </c>
       <c r="BI11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3113</v>
       </c>
       <c r="BJ11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2521</v>
       </c>
       <c r="BK11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3083</v>
       </c>
       <c r="BL11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1986</v>
       </c>
       <c r="BM11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3185</v>
       </c>
       <c r="BN11" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2401</v>
       </c>
       <c r="BO11" s="10">
-        <f t="shared" ref="BO11" si="11">+BO9-BO10</f>
+        <f t="shared" ref="BO11" si="13">+BO9-BO10</f>
         <v>2850</v>
       </c>
       <c r="BP11" s="10">
@@ -3816,19 +3821,19 @@
         <v>2213</v>
       </c>
       <c r="BT11" s="7">
-        <f t="shared" ref="BT11:BW11" si="12">+BT9-BT10</f>
+        <f t="shared" ref="BT11:BW11" si="14">+BT9-BT10</f>
         <v>9023</v>
       </c>
       <c r="BU11" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6550</v>
       </c>
       <c r="BV11" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1283</v>
       </c>
       <c r="BW11" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6476</v>
       </c>
       <c r="BX11" s="7">
@@ -3836,23 +3841,23 @@
         <v>8985</v>
       </c>
       <c r="BY11" s="7">
-        <f t="shared" ref="BY11:CC11" si="13">+BY9-BY10</f>
+        <f t="shared" ref="BY11:CC11" si="15">+BY9-BY10</f>
         <v>7768</v>
       </c>
       <c r="BZ11" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9804</v>
       </c>
       <c r="CA11" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9571</v>
       </c>
       <c r="CB11" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10703</v>
       </c>
       <c r="CC11" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10649</v>
       </c>
       <c r="CD11" s="7">
@@ -3860,427 +3865,427 @@
         <v>10861.98</v>
       </c>
       <c r="CE11" s="7">
-        <f t="shared" ref="CE11:EP11" si="14">+CD11*(1+$CF$17)</f>
+        <f t="shared" ref="CE11:EP11" si="16">+CD11*(1+$CF$17)</f>
         <v>11079.2196</v>
       </c>
       <c r="CF11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11300.803992000001</v>
       </c>
       <c r="CG11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11526.820071840002</v>
       </c>
       <c r="CH11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11757.356473276803</v>
       </c>
       <c r="CI11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11992.503602742339</v>
       </c>
       <c r="CJ11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>12232.353674797187</v>
       </c>
       <c r="CK11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>12477.000748293131</v>
       </c>
       <c r="CL11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>12726.540763258994</v>
       </c>
       <c r="CM11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>12981.071578524174</v>
       </c>
       <c r="CN11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>13240.693010094657</v>
       </c>
       <c r="CO11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>13505.506870296551</v>
       </c>
       <c r="CP11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>13775.617007702482</v>
       </c>
       <c r="CQ11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>14051.129347856531</v>
       </c>
       <c r="CR11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>14332.151934813663</v>
       </c>
       <c r="CS11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>14618.794973509936</v>
       </c>
       <c r="CT11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>14911.170872980134</v>
       </c>
       <c r="CU11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>15209.394290439737</v>
       </c>
       <c r="CV11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>15513.582176248532</v>
       </c>
       <c r="CW11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>15823.853819773503</v>
       </c>
       <c r="CX11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>16140.330896168975</v>
       </c>
       <c r="CY11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>16463.137514092356</v>
       </c>
       <c r="CZ11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>16792.400264374202</v>
       </c>
       <c r="DA11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>17128.248269661686</v>
       </c>
       <c r="DB11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>17470.81323505492</v>
       </c>
       <c r="DC11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>17820.22949975602</v>
       </c>
       <c r="DD11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>18176.63408975114</v>
       </c>
       <c r="DE11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>18540.166771546163</v>
       </c>
       <c r="DF11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>18910.970106977085</v>
       </c>
       <c r="DG11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19289.189509116626</v>
       </c>
       <c r="DH11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19674.973299298959</v>
       </c>
       <c r="DI11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>20068.47276528494</v>
       </c>
       <c r="DJ11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>20469.842220590639</v>
       </c>
       <c r="DK11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>20879.239065002454</v>
       </c>
       <c r="DL11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>21296.823846302505</v>
       </c>
       <c r="DM11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>21722.760323228555</v>
       </c>
       <c r="DN11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>22157.215529693127</v>
       </c>
       <c r="DO11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>22600.35984028699</v>
       </c>
       <c r="DP11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>23052.367037092732</v>
       </c>
       <c r="DQ11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>23513.414377834586</v>
       </c>
       <c r="DR11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>23983.682665391279</v>
       </c>
       <c r="DS11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>24463.356318699105</v>
       </c>
       <c r="DT11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>24952.623445073088</v>
       </c>
       <c r="DU11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>25451.675913974552</v>
       </c>
       <c r="DV11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>25960.709432254043</v>
       </c>
       <c r="DW11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>26479.923620899124</v>
       </c>
       <c r="DX11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>27009.522093317108</v>
       </c>
       <c r="DY11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>27549.712535183451</v>
       </c>
       <c r="DZ11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>28100.70678588712</v>
       </c>
       <c r="EA11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>28662.720921604861</v>
       </c>
       <c r="EB11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>29235.975340036959</v>
       </c>
       <c r="EC11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>29820.694846837698</v>
       </c>
       <c r="ED11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>30417.108743774454</v>
       </c>
       <c r="EE11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>31025.450918649942</v>
       </c>
       <c r="EF11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>31645.959937022941</v>
       </c>
       <c r="EG11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>32278.8791357634</v>
       </c>
       <c r="EH11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>32924.456718478672</v>
       </c>
       <c r="EI11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>33582.945852848243</v>
       </c>
       <c r="EJ11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>34254.604769905207</v>
       </c>
       <c r="EK11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>34939.696865303311</v>
       </c>
       <c r="EL11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>35638.490802609376</v>
       </c>
       <c r="EM11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>36351.260618661567</v>
       </c>
       <c r="EN11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>37078.285831034802</v>
       </c>
       <c r="EO11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>37819.851547655497</v>
       </c>
       <c r="EP11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>38576.248578608611</v>
       </c>
       <c r="EQ11" s="7">
-        <f t="shared" ref="EQ11:GE11" si="15">+EP11*(1+$CF$17)</f>
+        <f t="shared" ref="EQ11:GE11" si="17">+EP11*(1+$CF$17)</f>
         <v>39347.773550180784</v>
       </c>
       <c r="ER11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>40134.729021184401</v>
       </c>
       <c r="ES11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>40937.42360160809</v>
       </c>
       <c r="ET11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>41756.172073640249</v>
       </c>
       <c r="EU11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>42591.295515113052</v>
       </c>
       <c r="EV11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>43443.121425415316</v>
       </c>
       <c r="EW11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>44311.983853923623</v>
       </c>
       <c r="EX11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>45198.223531002099</v>
       </c>
       <c r="EY11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>46102.18800162214</v>
       </c>
       <c r="EZ11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>47024.231761654584</v>
       </c>
       <c r="FA11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>47964.716396887678</v>
       </c>
       <c r="FB11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>48924.010724825435</v>
       </c>
       <c r="FC11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>49902.490939321942</v>
       </c>
       <c r="FD11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>50900.540758108385</v>
       </c>
       <c r="FE11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>51918.551573270553</v>
       </c>
       <c r="FF11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>52956.922604735963</v>
       </c>
       <c r="FG11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>54016.06105683068</v>
       </c>
       <c r="FH11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>55096.382277967292</v>
       </c>
       <c r="FI11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>56198.309923526642</v>
       </c>
       <c r="FJ11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>57322.276121997173</v>
       </c>
       <c r="FK11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>58468.721644437115</v>
       </c>
       <c r="FL11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>59638.096077325856</v>
       </c>
       <c r="FM11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>60830.857998872372</v>
       </c>
       <c r="FN11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>62047.475158849818</v>
       </c>
       <c r="FO11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>63288.424662026817</v>
       </c>
       <c r="FP11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>64554.193155267356</v>
       </c>
       <c r="FQ11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>65845.277018372697</v>
       </c>
       <c r="FR11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>67162.182558740154</v>
       </c>
       <c r="FS11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>68505.426209914964</v>
       </c>
       <c r="FT11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>69875.534734113258</v>
       </c>
       <c r="FU11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>71273.045428795522</v>
       </c>
       <c r="FV11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>72698.506337371437</v>
       </c>
       <c r="FW11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>74152.476464118867</v>
       </c>
       <c r="FX11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>75635.525993401243</v>
       </c>
       <c r="FY11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>77148.236513269265</v>
       </c>
       <c r="FZ11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>78691.201243534655</v>
       </c>
       <c r="GA11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>80265.025268405356</v>
       </c>
       <c r="GB11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>81870.325773773468</v>
       </c>
       <c r="GC11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>83507.732289248932</v>
       </c>
       <c r="GD11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>85177.886935033908</v>
       </c>
       <c r="GE11" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>86881.444673734586</v>
       </c>
     </row>
-    <row r="12" spans="1:187" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:187" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -4349,7 +4354,7 @@
       <c r="BO12" s="5"/>
       <c r="BP12" s="5"/>
     </row>
-    <row r="13" spans="1:187" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:187" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>85</v>
       </c>
@@ -4358,279 +4363,279 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="12">
-        <f>G3/C3-1</f>
+        <f t="shared" ref="G13:AL13" si="18">G3/C3-1</f>
         <v>-0.1107671899181959</v>
       </c>
       <c r="H13" s="12">
-        <f>H3/D3-1</f>
+        <f t="shared" si="18"/>
         <v>-0.10520671988561892</v>
       </c>
       <c r="I13" s="12">
-        <f>I3/E3-1</f>
+        <f t="shared" si="18"/>
         <v>4.965825080206443E-2</v>
       </c>
       <c r="J13" s="12">
-        <f>J3/F3-1</f>
+        <f t="shared" si="18"/>
         <v>4.9231885811056086E-2</v>
       </c>
       <c r="K13" s="12">
-        <f>K3/G3-1</f>
+        <f t="shared" si="18"/>
         <v>4.7488811536549047E-2</v>
       </c>
       <c r="L13" s="12">
-        <f>L3/H3-1</f>
+        <f t="shared" si="18"/>
         <v>0.39733688415446067</v>
       </c>
       <c r="M13" s="12">
-        <f>M3/I3-1</f>
+        <f t="shared" si="18"/>
         <v>0.39760797342192689</v>
       </c>
       <c r="N13" s="12">
-        <f>N3/J3-1</f>
+        <f t="shared" si="18"/>
         <v>0.46841134424717557</v>
       </c>
       <c r="O13" s="12">
-        <f>O3/K3-1</f>
+        <f t="shared" si="18"/>
         <v>0.45359601234274871</v>
       </c>
       <c r="P13" s="12">
-        <f>P3/L3-1</f>
+        <f t="shared" si="18"/>
         <v>5.2029731275014202E-2</v>
       </c>
       <c r="Q13" s="12">
-        <f>Q3/M3-1</f>
+        <f t="shared" si="18"/>
         <v>5.8952172672815495E-2</v>
       </c>
       <c r="R13" s="12">
-        <f>R3/N3-1</f>
+        <f t="shared" si="18"/>
         <v>2.7321975347412986E-2</v>
       </c>
       <c r="S13" s="12">
-        <f>S3/O3-1</f>
+        <f t="shared" si="18"/>
         <v>7.5114304376224794E-3</v>
       </c>
       <c r="T13" s="12">
-        <f>T3/P3-1</f>
+        <f t="shared" si="18"/>
         <v>3.7590579710145011E-2</v>
       </c>
       <c r="U13" s="12">
-        <f>U3/Q3-1</f>
+        <f t="shared" si="18"/>
         <v>-9.1586603214510731E-3</v>
       </c>
       <c r="V13" s="12">
-        <f>V3/R3-1</f>
+        <f t="shared" si="18"/>
         <v>-2.5678257546809302E-2</v>
       </c>
       <c r="W13" s="12">
-        <f>W3/S3-1</f>
+        <f t="shared" si="18"/>
         <v>-2.5121555915721183E-2</v>
       </c>
       <c r="X13" s="12">
-        <f>X3/T3-1</f>
+        <f t="shared" si="18"/>
         <v>-3.6228721082496751E-2</v>
       </c>
       <c r="Y13" s="12">
-        <f>Y3/U3-1</f>
+        <f t="shared" si="18"/>
         <v>-4.1594925237879443E-2</v>
       </c>
       <c r="Z13" s="12">
-        <f>Z3/V3-1</f>
+        <f t="shared" si="18"/>
         <v>-1.3726566789552086E-2</v>
       </c>
       <c r="AA13" s="12">
-        <f>AA3/W3-1</f>
+        <f t="shared" si="18"/>
         <v>-4.4887780548628076E-3</v>
       </c>
       <c r="AB13" s="12">
-        <f>AB3/X3-1</f>
+        <f t="shared" si="18"/>
         <v>-1.5217391304347849E-2</v>
       </c>
       <c r="AC13" s="12">
-        <f>AC3/Y3-1</f>
+        <f t="shared" si="18"/>
         <v>1.2764750378214895E-2</v>
       </c>
       <c r="AD13" s="12">
-        <f>AD3/Z3-1</f>
+        <f t="shared" si="18"/>
         <v>-3.3243200254493344E-2</v>
       </c>
       <c r="AE13" s="12">
-        <f>AE3/AA3-1</f>
+        <f t="shared" si="18"/>
         <v>-4.5841683366733443E-2</v>
       </c>
       <c r="AF13" s="12">
-        <f>AF3/AB3-1</f>
+        <f t="shared" si="18"/>
         <v>-8.0206033848417957E-2</v>
       </c>
       <c r="AG13" s="12">
-        <f>AG3/AC3-1</f>
+        <f t="shared" si="18"/>
         <v>-4.005228270002803E-2</v>
       </c>
       <c r="AH13" s="12">
-        <f>AH3/AD3-1</f>
+        <f t="shared" si="18"/>
         <v>-5.075682790391578E-2</v>
       </c>
       <c r="AI13" s="12">
-        <f>AI3/AE3-1</f>
+        <f t="shared" si="18"/>
         <v>-6.9484554126192366E-2</v>
       </c>
       <c r="AJ13" s="12">
-        <f>AJ3/AF3-1</f>
+        <f t="shared" si="18"/>
         <v>-5.9100000000000041E-2</v>
       </c>
       <c r="AK13" s="12">
-        <f>AK3/AG3-1</f>
+        <f t="shared" si="18"/>
         <v>-0.1132075471698113</v>
       </c>
       <c r="AL13" s="12">
-        <f>AL3/AH3-1</f>
+        <f t="shared" si="18"/>
         <v>-0.15919923736892283</v>
       </c>
       <c r="AM13" s="12">
-        <f>AM3/AI3-1</f>
+        <f t="shared" ref="AM13:BR13" si="19">AM3/AI3-1</f>
         <v>-0.14624282892880658</v>
       </c>
       <c r="AN13" s="12">
-        <f>AN3/AJ3-1</f>
+        <f t="shared" si="19"/>
         <v>-0.1163779360187055</v>
       </c>
       <c r="AO13" s="12">
-        <f>AO3/AK3-1</f>
+        <f t="shared" si="19"/>
         <v>-0.16363237552094756</v>
       </c>
       <c r="AP13" s="12">
-        <f>AP3/AL3-1</f>
+        <f t="shared" si="19"/>
         <v>-2.8963100391671825E-2</v>
       </c>
       <c r="AQ13" s="12">
-        <f>AQ3/AM3-1</f>
+        <f t="shared" si="19"/>
         <v>-3.3377395902181139E-2</v>
       </c>
       <c r="AR13" s="12">
-        <f>AR3/AN3-1</f>
+        <f t="shared" si="19"/>
         <v>1.972576377195101E-2</v>
       </c>
       <c r="AS13" s="12">
-        <f>AS3/AO3-1</f>
+        <f t="shared" si="19"/>
         <v>0.14004720692368222</v>
       </c>
       <c r="AT13" s="12">
-        <f>AT3/AP3-1</f>
+        <f t="shared" si="19"/>
         <v>6.114000636875061E-2</v>
       </c>
       <c r="AU13" s="12">
-        <f>AU3/AQ3-1</f>
+        <f t="shared" si="19"/>
         <v>8.3418803418803478E-2</v>
       </c>
       <c r="AV13" s="12">
-        <f>AV3/AR3-1</f>
+        <f t="shared" si="19"/>
         <v>6.9591884878509092E-2</v>
       </c>
       <c r="AW13" s="12">
-        <f>AW3/AS3-1</f>
+        <f t="shared" si="19"/>
         <v>-1.0697032436162823E-2</v>
       </c>
       <c r="AX13" s="12">
-        <f>AX3/AT3-1</f>
+        <f t="shared" si="19"/>
         <v>-0.28478543563068925</v>
       </c>
       <c r="AY13" s="12">
-        <f>AY3/AU3-1</f>
+        <f t="shared" si="19"/>
         <v>-8.9933733038813468E-2</v>
       </c>
       <c r="AZ13" s="12">
-        <f>AZ3/AV3-1</f>
+        <f t="shared" si="19"/>
         <v>-5.0397000441111617E-2</v>
       </c>
       <c r="BA13" s="12">
-        <f>BA3/AW3-1</f>
+        <f t="shared" si="19"/>
         <v>4.8715265666782859E-2</v>
       </c>
       <c r="BB13" s="12">
-        <f>BB3/AX3-1</f>
+        <f t="shared" si="19"/>
         <v>0.41664335664335672</v>
       </c>
       <c r="BC13" s="12">
-        <f>BC3/AY3-1</f>
+        <f t="shared" si="19"/>
         <v>0.16065649560795192</v>
       </c>
       <c r="BD13" s="12">
-        <f>BD3/AZ3-1</f>
+        <f t="shared" si="19"/>
         <v>9.9059342701196096E-2</v>
       </c>
       <c r="BE13" s="12">
-        <f>BE3/BA3-1</f>
+        <f t="shared" si="19"/>
         <v>0.16308203991130821</v>
       </c>
       <c r="BF13" s="12">
-        <f>BF3/BB3-1</f>
+        <f t="shared" si="19"/>
         <v>0.11807680916181251</v>
       </c>
       <c r="BG13" s="12">
-        <f>BG3/BC3-1</f>
+        <f t="shared" si="19"/>
         <v>0.10167297351125271</v>
       </c>
       <c r="BH13" s="12">
-        <f>BH3/BD3-1</f>
+        <f t="shared" si="19"/>
         <v>6.9843617920541057E-2</v>
       </c>
       <c r="BI13" s="12">
-        <f>BI3/BE3-1</f>
+        <f t="shared" si="19"/>
         <v>4.661138118387198E-2</v>
       </c>
       <c r="BJ13" s="12">
-        <f>BJ3/BF3-1</f>
+        <f t="shared" si="19"/>
         <v>5.713024282560708E-2</v>
       </c>
       <c r="BK13" s="12">
-        <f>BK3/BG3-1</f>
+        <f t="shared" si="19"/>
         <v>8.0448341317906458E-2</v>
       </c>
       <c r="BL13" s="12">
-        <f>BL3/BH3-1</f>
+        <f t="shared" si="19"/>
         <v>7.150617283950611E-2</v>
       </c>
       <c r="BM13" s="12">
-        <f>BM3/BI3-1</f>
+        <f t="shared" si="19"/>
         <v>2.9143897996356971E-2</v>
       </c>
       <c r="BN13" s="12">
-        <f>BN3/BJ3-1</f>
+        <f t="shared" si="19"/>
         <v>3.2659538924156406E-2</v>
       </c>
       <c r="BO13" s="12">
-        <f>BO3/BK3-1</f>
+        <f t="shared" si="19"/>
         <v>-8.2824395549234708E-3</v>
       </c>
       <c r="BP13" s="12">
-        <f>BP3/BL3-1</f>
+        <f t="shared" si="19"/>
         <v>6.4061203797584954E-2</v>
       </c>
       <c r="BU13" s="6">
-        <f t="shared" ref="BU13:BY13" si="16">BU3/BT3-1</f>
+        <f t="shared" ref="BU13:BX13" si="20">BU3/BT3-1</f>
         <v>-5.4883279902469884E-2</v>
       </c>
       <c r="BV13" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.13498793684160237</v>
       </c>
       <c r="BW13" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-5.2800176736993221E-2</v>
       </c>
       <c r="BX13" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>8.647230320699717E-2</v>
       </c>
       <c r="BY13" s="6">
-        <f t="shared" ref="BY13:CB13" si="17">BY3/BX3-1</f>
+        <f t="shared" ref="BY13:CA13" si="21">BY3/BX3-1</f>
         <v>-0.11409864219395693</v>
       </c>
       <c r="BZ13" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.17086690494941537</v>
       </c>
       <c r="CA13" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.11250808433579107</v>
       </c>
       <c r="CB13" s="6">
@@ -4642,312 +4647,312 @@
         <v>2.8565808453905772E-2</v>
       </c>
       <c r="CD13" s="6">
-        <f t="shared" ref="CD13:CI13" si="18">CD3/CC3-1</f>
+        <f t="shared" ref="CD13:CI13" si="22">CD3/CC3-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="CE13" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="CF13" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="CG13" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="CH13" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="CI13" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:187" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:187" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="11">
-        <f>C5/C3</f>
+        <f t="shared" ref="C14:AH14" si="23">C5/C3</f>
         <v>0.65045323900066332</v>
       </c>
       <c r="D14" s="11">
-        <f>D5/D3</f>
+        <f t="shared" si="23"/>
         <v>0.6401763374240439</v>
       </c>
       <c r="E14" s="11">
-        <f>E5/E3</f>
+        <f t="shared" si="23"/>
         <v>0.63872227646812663</v>
       </c>
       <c r="F14" s="11">
-        <f>F5/F3</f>
+        <f t="shared" si="23"/>
         <v>0.64763517600096765</v>
       </c>
       <c r="G14" s="11">
-        <f>G5/G3</f>
+        <f t="shared" si="23"/>
         <v>0.63525609149676776</v>
       </c>
       <c r="H14" s="11">
-        <f>H5/H3</f>
+        <f t="shared" si="23"/>
         <v>0.64700399467376835</v>
       </c>
       <c r="I14" s="11">
-        <f>I5/I3</f>
+        <f t="shared" si="23"/>
         <v>0.66232558139534881</v>
       </c>
       <c r="J14" s="11">
-        <f>J5/J3</f>
+        <f t="shared" si="23"/>
         <v>0.65932672354161859</v>
       </c>
       <c r="K14" s="11">
-        <f>K5/K3</f>
+        <f t="shared" si="23"/>
         <v>0.65369095656301923</v>
       </c>
       <c r="L14" s="11">
-        <f>L5/L3</f>
+        <f t="shared" si="23"/>
         <v>0.59224318658280928</v>
       </c>
       <c r="M14" s="11">
-        <f>M5/M3</f>
+        <f t="shared" si="23"/>
         <v>0.62460777788342681</v>
       </c>
       <c r="N14" s="11">
-        <f>N5/N3</f>
+        <f t="shared" si="23"/>
         <v>0.60830650859700086</v>
       </c>
       <c r="O14" s="11">
-        <f>O5/O3</f>
+        <f t="shared" si="23"/>
         <v>0.60197583278902678</v>
       </c>
       <c r="P14" s="11">
-        <f>P5/P3</f>
+        <f t="shared" si="23"/>
         <v>0.60117753623188408</v>
       </c>
       <c r="Q14" s="11">
-        <f>Q5/Q3</f>
+        <f t="shared" si="23"/>
         <v>0.60958965610128402</v>
       </c>
       <c r="R14" s="11">
-        <f>R5/R3</f>
+        <f t="shared" si="23"/>
         <v>0.60076423385555977</v>
       </c>
       <c r="S14" s="11">
-        <f>S5/S3</f>
+        <f t="shared" si="23"/>
         <v>0.60672609400324151</v>
       </c>
       <c r="T14" s="11">
-        <f>T5/T3</f>
+        <f t="shared" si="23"/>
         <v>0.59598428633784373</v>
       </c>
       <c r="U14" s="11">
-        <f>U5/U3</f>
+        <f t="shared" si="23"/>
         <v>0.60815586769370189</v>
       </c>
       <c r="V14" s="11">
-        <f>V5/V3</f>
+        <f t="shared" si="23"/>
         <v>0.60867519021099692</v>
       </c>
       <c r="W14" s="11">
-        <f>W5/W3</f>
+        <f t="shared" si="23"/>
         <v>0.60157938487115548</v>
       </c>
       <c r="X14" s="11">
-        <f>X5/X3</f>
+        <f t="shared" si="23"/>
         <v>0.60914855072463769</v>
       </c>
       <c r="Y14" s="11">
-        <f>Y5/Y3</f>
+        <f t="shared" si="23"/>
         <v>0.61393721633888043</v>
       </c>
       <c r="Z14" s="11">
-        <f>Z5/Z3</f>
+        <f t="shared" si="23"/>
         <v>0.61674884682678544</v>
       </c>
       <c r="AA14" s="11">
-        <f>AA5/AA3</f>
+        <f t="shared" si="23"/>
         <v>0.61339345357381425</v>
       </c>
       <c r="AB14" s="11">
-        <f>AB5/AB3</f>
+        <f t="shared" si="23"/>
         <v>0.59924576894775572</v>
       </c>
       <c r="AC14" s="11">
-        <f>AC5/AC3</f>
+        <f t="shared" si="23"/>
         <v>0.61693586033050141</v>
       </c>
       <c r="AD14" s="11">
-        <f>AD5/AD3</f>
+        <f t="shared" si="23"/>
         <v>0.60941099045738734</v>
       </c>
       <c r="AE14" s="11">
-        <f>AE5/AE3</f>
+        <f t="shared" si="23"/>
         <v>0.59945742539599189</v>
       </c>
       <c r="AF14" s="11">
-        <f>AF5/AF3</f>
+        <f t="shared" si="23"/>
         <v>0.59460000000000002</v>
       </c>
       <c r="AG14" s="11">
-        <f>AG5/AG3</f>
+        <f t="shared" si="23"/>
         <v>0.60425987162030736</v>
       </c>
       <c r="AH14" s="11">
-        <f>AH5/AH3</f>
+        <f t="shared" si="23"/>
         <v>0.61253141520062393</v>
       </c>
       <c r="AI14" s="11">
-        <f>AI5/AI3</f>
+        <f t="shared" ref="AI14:BP14" si="24">AI5/AI3</f>
         <v>0.61149252327659176</v>
       </c>
       <c r="AJ14" s="11">
-        <f>AJ5/AJ3</f>
+        <f t="shared" si="24"/>
         <v>0.59676905090870447</v>
       </c>
       <c r="AK14" s="11">
-        <f>AK5/AK3</f>
+        <f t="shared" si="24"/>
         <v>0.61471813994296998</v>
       </c>
       <c r="AL14" s="11">
-        <f>AL5/AL3</f>
+        <f t="shared" si="24"/>
         <v>0.62286126571840861</v>
       </c>
       <c r="AM14" s="11">
-        <f>AM5/AM3</f>
+        <f t="shared" si="24"/>
         <v>0.626129103326724</v>
       </c>
       <c r="AN14" s="11">
-        <f>AN5/AN3</f>
+        <f t="shared" si="24"/>
         <v>0.62051960548472451</v>
       </c>
       <c r="AO14" s="11">
-        <f>AO5/AO3</f>
+        <f t="shared" si="24"/>
         <v>0.64096511932861266</v>
       </c>
       <c r="AP14" s="11">
-        <f>AP5/AP3</f>
+        <f t="shared" si="24"/>
         <v>0.62392527332554926</v>
       </c>
       <c r="AQ14" s="11">
-        <f>AQ5/AQ3</f>
+        <f t="shared" si="24"/>
         <v>0.61868945868945868</v>
       </c>
       <c r="AR14" s="11">
-        <f>AR5/AR3</f>
+        <f t="shared" si="24"/>
         <v>0.59424392545411653</v>
       </c>
       <c r="AS14" s="11">
-        <f>AS5/AS3</f>
+        <f t="shared" si="24"/>
         <v>0.6129514607775477</v>
       </c>
       <c r="AT14" s="11">
-        <f>AT5/AT3</f>
+        <f t="shared" si="24"/>
         <v>0.6077823347004101</v>
       </c>
       <c r="AU14" s="11">
-        <f>AU5/AU3</f>
+        <f t="shared" si="24"/>
         <v>0.60376564636583574</v>
       </c>
       <c r="AV14" s="11">
-        <f>AV5/AV3</f>
+        <f t="shared" si="24"/>
         <v>0.60674900749889726</v>
       </c>
       <c r="AW14" s="11">
-        <f>AW5/AW3</f>
+        <f t="shared" si="24"/>
         <v>0.60806882920590632</v>
       </c>
       <c r="AX14" s="11">
-        <f>AX5/AX3</f>
+        <f t="shared" si="24"/>
         <v>0.57860139860139859</v>
       </c>
       <c r="AY14" s="11">
-        <f>AY5/AY3</f>
+        <f t="shared" si="24"/>
         <v>0.59882108183079052</v>
       </c>
       <c r="AZ14" s="11">
-        <f>AZ5/AZ3</f>
+        <f t="shared" si="24"/>
         <v>0.58448496109627224</v>
       </c>
       <c r="BA14" s="11">
-        <f>BA5/BA3</f>
+        <f t="shared" si="24"/>
         <v>0.61141906873614194</v>
       </c>
       <c r="BB14" s="11">
-        <f>BB5/BB3</f>
+        <f t="shared" si="24"/>
         <v>0.62612301313061502</v>
       </c>
       <c r="BC14" s="11">
-        <f>BC5/BC3</f>
+        <f t="shared" si="24"/>
         <v>0.60396335391356304</v>
       </c>
       <c r="BD14" s="11">
-        <f>BD5/BD3</f>
+        <f t="shared" si="24"/>
         <v>0.56804733727810652</v>
       </c>
       <c r="BE14" s="11">
-        <f>BE5/BE3</f>
+        <f t="shared" si="24"/>
         <v>0.61004670670098182</v>
       </c>
       <c r="BF14" s="11">
-        <f>BF5/BF3</f>
+        <f t="shared" si="24"/>
         <v>0.57350993377483439</v>
       </c>
       <c r="BG14" s="11">
-        <f>BG5/BG3</f>
+        <f t="shared" si="24"/>
         <v>0.58727289162071772</v>
       </c>
       <c r="BH14" s="11">
-        <f>BH5/BH3</f>
+        <f t="shared" si="24"/>
         <v>0.55427160493827166</v>
       </c>
       <c r="BI14" s="11">
-        <f>BI5/BI3</f>
+        <f t="shared" si="24"/>
         <v>0.60683060109289622</v>
       </c>
       <c r="BJ14" s="11">
-        <f>BJ5/BJ3</f>
+        <f t="shared" si="24"/>
         <v>0.58970932175075175</v>
       </c>
       <c r="BK14" s="11">
-        <f>BK5/BK3</f>
+        <f t="shared" si="24"/>
         <v>0.61039069689617664</v>
       </c>
       <c r="BL14" s="11">
-        <f>BL5/BL3</f>
+        <f t="shared" si="24"/>
         <v>0.57286385842013088</v>
       </c>
       <c r="BM14" s="11">
-        <f>BM5/BM3</f>
+        <f t="shared" si="24"/>
         <v>0.62522123893805315</v>
       </c>
       <c r="BN14" s="11">
-        <f>BN5/BN3</f>
+        <f t="shared" si="24"/>
         <v>0.61077408396020383</v>
       </c>
       <c r="BO14" s="11">
-        <f>BO5/BO3</f>
+        <f t="shared" si="24"/>
         <v>0.60654631348068166</v>
       </c>
       <c r="BP14" s="11">
-        <f>BP5/BP3</f>
+        <f t="shared" si="24"/>
         <v>0.60039847539847535</v>
       </c>
       <c r="BT14" s="11">
-        <f t="shared" ref="BT14:BX14" si="19">BT5/BT3</f>
+        <f t="shared" ref="BT14:BW14" si="25">BT5/BT3</f>
         <v>0.60531900483135415</v>
       </c>
       <c r="BU14" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.60669326135250701</v>
       </c>
       <c r="BV14" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.62109245553960013</v>
       </c>
       <c r="BW14" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.61903790087463562</v>
       </c>
       <c r="BX14" s="11">
@@ -4955,332 +4960,332 @@
         <v>0.60771212365158589</v>
       </c>
       <c r="BY14" s="11">
-        <f t="shared" ref="BY14:CC14" si="20">BY5/BY3</f>
+        <f t="shared" ref="BY14:CC14" si="26">BY5/BY3</f>
         <v>0.59311201308535777</v>
       </c>
       <c r="BZ14" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.60271633682576642</v>
       </c>
       <c r="CA14" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.58143428518277374</v>
       </c>
       <c r="CB14" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.5952266468505486</v>
       </c>
       <c r="CC14" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.61063300822336963</v>
       </c>
       <c r="CD14" s="11">
-        <f t="shared" ref="CD14:CI14" si="21">CD5/CD3</f>
+        <f t="shared" ref="CD14:CI14" si="27">CD5/CD3</f>
         <v>0</v>
       </c>
       <c r="CE14" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="CF14" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="CG14" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="CH14" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="CI14" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:187" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:187" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="11">
-        <f>C7/C3</f>
+        <f t="shared" ref="C15:AH15" si="28">C7/C3</f>
         <v>0.29615299579924831</v>
       </c>
       <c r="D15" s="11">
-        <f>D7/D3</f>
+        <f t="shared" si="28"/>
         <v>0.26617419277969739</v>
       </c>
       <c r="E15" s="11">
-        <f>E7/E3</f>
+        <f t="shared" si="28"/>
         <v>0.27270191100571906</v>
       </c>
       <c r="F15" s="11">
-        <f>F7/F3</f>
+        <f t="shared" si="28"/>
         <v>0.30361678964557881</v>
       </c>
       <c r="G15" s="11">
-        <f>G7/G3</f>
+        <f t="shared" si="28"/>
         <v>0.27324714072600698</v>
       </c>
       <c r="H15" s="11">
-        <f>H7/H3</f>
+        <f t="shared" si="28"/>
         <v>0.2504660452729694</v>
       </c>
       <c r="I15" s="11">
-        <f>I7/I3</f>
+        <f t="shared" si="28"/>
         <v>0.30285714285714288</v>
       </c>
       <c r="J15" s="11">
-        <f>J7/J3</f>
+        <f t="shared" si="28"/>
         <v>0.32753055107216972</v>
       </c>
       <c r="K15" s="11">
-        <f>K7/K3</f>
+        <f t="shared" si="28"/>
         <v>0.29005459292665559</v>
       </c>
       <c r="L15" s="11">
-        <f>L7/L3</f>
+        <f t="shared" si="28"/>
         <v>0.15894797026872498</v>
       </c>
       <c r="M15" s="11">
-        <f>M7/M3</f>
+        <f t="shared" si="28"/>
         <v>0.23704478463440146</v>
       </c>
       <c r="N15" s="11">
-        <f>N7/N3</f>
+        <f t="shared" si="28"/>
         <v>0.26152155138572664</v>
       </c>
       <c r="O15" s="11">
-        <f>O7/O3</f>
+        <f t="shared" si="28"/>
         <v>0.23269105160026127</v>
       </c>
       <c r="P15" s="11">
-        <f>P7/P3</f>
+        <f t="shared" si="28"/>
         <v>0.20208333333333334</v>
       </c>
       <c r="Q15" s="11">
-        <f>Q7/Q3</f>
+        <f t="shared" si="28"/>
         <v>0.23417437370925742</v>
       </c>
       <c r="R15" s="11">
-        <f>R7/R3</f>
+        <f t="shared" si="28"/>
         <v>0.25708826901031717</v>
       </c>
       <c r="S15" s="11">
-        <f>S7/S3</f>
+        <f t="shared" si="28"/>
         <v>0.23152350081037276</v>
       </c>
       <c r="T15" s="11">
-        <f>T7/T3</f>
+        <f t="shared" si="28"/>
         <v>0.20925360104757748</v>
       </c>
       <c r="U15" s="11">
-        <f>U7/U3</f>
+        <f t="shared" si="28"/>
         <v>0.22917988219302221</v>
       </c>
       <c r="V15" s="11">
-        <f>V7/V3</f>
+        <f t="shared" si="28"/>
         <v>0.26472664522707662</v>
       </c>
       <c r="W15" s="11">
-        <f>W7/W3</f>
+        <f t="shared" si="28"/>
         <v>0.23383208645054032</v>
       </c>
       <c r="X15" s="11">
-        <f>X7/X3</f>
+        <f t="shared" si="28"/>
         <v>0.21793478260869564</v>
       </c>
       <c r="Y15" s="11">
-        <f>Y7/Y3</f>
+        <f t="shared" si="28"/>
         <v>0.23676248108925871</v>
       </c>
       <c r="Z15" s="11">
-        <f>Z7/Z3</f>
+        <f t="shared" si="28"/>
         <v>0.26809289009066328</v>
       </c>
       <c r="AA15" s="11">
-        <f>AA7/AA3</f>
+        <f t="shared" si="28"/>
         <v>0.23705744822979291</v>
       </c>
       <c r="AB15" s="11">
-        <f>AB7/AB3</f>
+        <f t="shared" si="28"/>
         <v>0.20023914643119942</v>
       </c>
       <c r="AC15" s="11">
-        <f>AC7/AC3</f>
+        <f t="shared" si="28"/>
         <v>0.23611240780506021</v>
       </c>
       <c r="AD15" s="11">
-        <f>AD7/AD3</f>
+        <f t="shared" si="28"/>
         <v>0.26357354392892401</v>
       </c>
       <c r="AE15" s="11">
-        <f>AE7/AE3</f>
+        <f t="shared" si="28"/>
         <v>0.23129430296665793</v>
       </c>
       <c r="AF15" s="11">
-        <f>AF7/AF3</f>
+        <f t="shared" si="28"/>
         <v>0.2009</v>
       </c>
       <c r="AG15" s="11">
-        <f>AG7/AG3</f>
+        <f t="shared" si="28"/>
         <v>0.23847500486286716</v>
       </c>
       <c r="AH15" s="11">
-        <f>AH7/AH3</f>
+        <f t="shared" si="28"/>
         <v>0.27350723632897134</v>
       </c>
       <c r="AI15" s="11">
-        <f>AI7/AI3</f>
+        <f t="shared" ref="AI15:BP15" si="29">AI7/AI3</f>
         <v>0.23445876046271044</v>
       </c>
       <c r="AJ15" s="11">
-        <f>AJ7/AJ3</f>
+        <f t="shared" si="29"/>
         <v>5.9092358380274206E-2</v>
       </c>
       <c r="AK15" s="11">
-        <f>AK7/AK3</f>
+        <f t="shared" si="29"/>
         <v>0.24709366089054619</v>
       </c>
       <c r="AL15" s="11">
-        <f>AL7/AL3</f>
+        <f t="shared" si="29"/>
         <v>0.29509379509379507</v>
       </c>
       <c r="AM15" s="11">
-        <f>AM7/AM3</f>
+        <f t="shared" si="29"/>
         <v>0.24730116765807447</v>
       </c>
       <c r="AN15" s="11">
-        <f>AN7/AN3</f>
+        <f t="shared" si="29"/>
         <v>4.73899446716382E-2</v>
       </c>
       <c r="AO15" s="11">
-        <f>AO7/AO3</f>
+        <f t="shared" si="29"/>
         <v>0.23747705218987675</v>
       </c>
       <c r="AP15" s="11">
-        <f>AP7/AP3</f>
+        <f t="shared" si="29"/>
         <v>0.29359940558327141</v>
       </c>
       <c r="AQ15" s="11">
-        <f>AQ7/AQ3</f>
+        <f t="shared" si="29"/>
         <v>0.2978917378917379</v>
       </c>
       <c r="AR15" s="11">
-        <f>AR7/AR3</f>
+        <f t="shared" si="29"/>
         <v>0.23130455296060393</v>
       </c>
       <c r="AS15" s="11">
-        <f>AS7/AS3</f>
+        <f t="shared" si="29"/>
         <v>0.28007821486082357</v>
       </c>
       <c r="AT15" s="11">
-        <f>AT7/AT3</f>
+        <f t="shared" si="29"/>
         <v>0.29888966690007002</v>
       </c>
       <c r="AU15" s="11">
-        <f>AU7/AU3</f>
+        <f t="shared" si="29"/>
         <v>0.26285894603976018</v>
       </c>
       <c r="AV15" s="11">
-        <f>AV7/AV3</f>
+        <f t="shared" si="29"/>
         <v>0.23864137626819584</v>
       </c>
       <c r="AW15" s="11">
-        <f>AW7/AW3</f>
+        <f t="shared" si="29"/>
         <v>0.27671201023136843</v>
       </c>
       <c r="AX15" s="11">
-        <f>AX7/AX3</f>
+        <f t="shared" si="29"/>
         <v>0.27706293706293705</v>
       </c>
       <c r="AY15" s="11">
-        <f>AY7/AY3</f>
+        <f t="shared" si="29"/>
         <v>0.26560332871012482</v>
       </c>
       <c r="AZ15" s="11">
-        <f>AZ7/AZ3</f>
+        <f t="shared" si="29"/>
         <v>0.27151318081523634</v>
       </c>
       <c r="BA15" s="11">
-        <f>BA7/BA3</f>
+        <f t="shared" si="29"/>
         <v>0.30177383592017737</v>
       </c>
       <c r="BB15" s="11">
-        <f>BB7/BB3</f>
+        <f t="shared" si="29"/>
         <v>0.29775891006022315</v>
       </c>
       <c r="BC15" s="11">
-        <f>BC7/BC3</f>
+        <f t="shared" si="29"/>
         <v>0.28858793069109739</v>
       </c>
       <c r="BD15" s="11">
-        <f>BD7/BD3</f>
+        <f t="shared" si="29"/>
         <v>0.17666948436179206</v>
       </c>
       <c r="BE15" s="11">
-        <f>BE7/BE3</f>
+        <f t="shared" si="29"/>
         <v>0.32456391192450673</v>
       </c>
       <c r="BF15" s="11">
-        <f>BF7/BF3</f>
+        <f t="shared" si="29"/>
         <v>0.20671081677704195</v>
       </c>
       <c r="BG15" s="11">
-        <f>BG7/BG3</f>
+        <f t="shared" si="29"/>
         <v>0.27912862695471391</v>
       </c>
       <c r="BH15" s="11">
-        <f>BH7/BH3</f>
+        <f t="shared" si="29"/>
         <v>0.20493827160493827</v>
       </c>
       <c r="BI15" s="11">
-        <f>BI7/BI3</f>
+        <f t="shared" si="29"/>
         <v>0.30664845173041894</v>
       </c>
       <c r="BJ15" s="11">
-        <f>BJ7/BJ3</f>
+        <f t="shared" si="29"/>
         <v>0.20055128633478114</v>
       </c>
       <c r="BK15" s="11">
-        <f>BK7/BK3</f>
+        <f t="shared" si="29"/>
         <v>0.27357148832928974</v>
       </c>
       <c r="BL15" s="11">
-        <f>BL7/BL3</f>
+        <f t="shared" si="29"/>
         <v>0.20951239745598674</v>
       </c>
       <c r="BM15" s="11">
-        <f>BM7/BM3</f>
+        <f t="shared" si="29"/>
         <v>0.18946902654867256</v>
       </c>
       <c r="BN15" s="11">
-        <f>BN7/BN3</f>
+        <f t="shared" si="29"/>
         <v>0.21289331068510881</v>
       </c>
       <c r="BO15" s="11">
-        <f>BO7/BO3</f>
+        <f t="shared" si="29"/>
         <v>0.21174287160452168</v>
       </c>
       <c r="BP15" s="11">
-        <f>BP7/BP3</f>
+        <f t="shared" si="29"/>
         <v>0.23466735966735966</v>
       </c>
       <c r="BT15" s="11">
-        <f t="shared" ref="BT15:BX15" si="22">BT7/BT3</f>
+        <f t="shared" ref="BT15:BW15" si="30">BT7/BT3</f>
         <v>0.23445613401363616</v>
       </c>
       <c r="BU15" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0.20679358861046748</v>
       </c>
       <c r="BV15" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0.21415552855407047</v>
       </c>
       <c r="BW15" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0.26682215743440235</v>
       </c>
       <c r="BX15" s="11">
@@ -5288,51 +5293,51 @@
         <v>0.27064884881661566</v>
       </c>
       <c r="BY15" s="11">
-        <f t="shared" ref="BY15:CC15" si="23">BY7/BY3</f>
+        <f t="shared" ref="BY15:CC15" si="31">BY7/BY3</f>
         <v>0.27252074877324772</v>
       </c>
       <c r="BZ15" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="CA15" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0.25367407683006232</v>
       </c>
       <c r="CB15" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0.24721335839489444</v>
       </c>
       <c r="CC15" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0.21232018019166612</v>
       </c>
       <c r="CD15" s="11">
-        <f t="shared" ref="CD15:CI15" si="24">CD7/CD3</f>
+        <f t="shared" ref="CD15:CI15" si="32">CD7/CD3</f>
         <v>0</v>
       </c>
       <c r="CE15" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="CF15" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="CG15" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="CH15" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="CI15" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="81:84" x14ac:dyDescent="0.2">
+    <row r="17" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CC17" s="14">
         <f>RATE(10,0,-BT11,CC11)</f>
         <v>1.6706937479280818E-2</v>
@@ -5344,7 +5349,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="81:84" x14ac:dyDescent="0.2">
+    <row r="18" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CE18" s="13" t="s">
         <v>87</v>
       </c>
@@ -5352,7 +5357,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="19" spans="81:84" x14ac:dyDescent="0.2">
+    <row r="19" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CE19" s="13" t="s">
         <v>88</v>
       </c>
@@ -5361,13 +5366,13 @@
         <v>266180.81070941745</v>
       </c>
     </row>
-    <row r="20" spans="81:84" x14ac:dyDescent="0.2">
+    <row r="20" spans="81:84" x14ac:dyDescent="0.25">
       <c r="CE20" s="13" t="s">
         <v>89</v>
       </c>
       <c r="CF20" s="18">
         <f>CF19/Main!L3</f>
-        <v>61.888121532066371</v>
+        <v>61.841151330017183</v>
       </c>
     </row>
   </sheetData>
